--- a/Data/aearep-790/candidatepackages.xlsx
+++ b/Data/aearep-790/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,24 +25,21 @@
     <t>estout</t>
   </si>
   <si>
-    <t>filelist</t>
-  </si>
-  <si>
     <t>reghdfe</t>
   </si>
   <si>
+    <t>coefplot</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
+    <t>diff</t>
   </si>
   <si>
     <t>spmap</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>center</t>
   </si>
   <si>
@@ -61,36 +58,33 @@
     <t>mat2txt</t>
   </si>
   <si>
+    <t>cmogram</t>
+  </si>
+  <si>
     <t>addplot</t>
   </si>
   <si>
-    <t>cmogram</t>
-  </si>
-  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
-  </si>
-  <si>
     <t>kmatch</t>
   </si>
   <si>
     <t>lambda</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>omega</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -100,45 +94,36 @@
     <t>index</t>
   </si>
   <si>
-    <t>lars</t>
-  </si>
-  <si>
     <t>delta</t>
   </si>
   <si>
+    <t>kernel</t>
+  </si>
+  <si>
     <t>decomp</t>
   </si>
   <si>
-    <t>kernel</t>
+    <t>effects</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>effects</t>
-  </si>
-  <si>
     <t>mc</t>
   </si>
   <si>
     <t>next</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
     <t>stack</t>
   </si>
   <si>
+    <t>dash</t>
+  </si>
+  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -151,9 +136,6 @@
     <t>dirname</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-790</t>
-  </si>
-  <si>
     <t>/home/lv39/Workspace/AEA/all//aearep-790/118906/CODES</t>
   </si>
   <si>
@@ -164,12 +146,6 @@
   </si>
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>config.do</t>
   </si>
   <si>
     <t>clean_all.do</t>
@@ -273,7 +249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -281,13 +257,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
@@ -295,7 +271,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -319,7 +295,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -331,7 +307,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -343,7 +319,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -355,7 +331,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -367,7 +343,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -379,7 +355,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -391,7 +367,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -403,7 +379,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -415,7 +391,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -427,7 +403,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -439,7 +415,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -451,7 +427,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -463,7 +439,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -475,7 +451,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -487,7 +463,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>267</v>
+        <v>359</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -499,10 +475,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.128925621509552</v>
       </c>
       <c r="D19"/>
     </row>
@@ -511,10 +487,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>347</v>
+        <v>499</v>
       </c>
       <c r="C20">
-        <v>0.11505305022001266</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D20"/>
     </row>
@@ -523,10 +499,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>417</v>
+        <v>539</v>
       </c>
       <c r="C21">
-        <v>0.13826259970664978</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D21"/>
     </row>
@@ -535,10 +511,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C22">
-        <v>0.18534483015537262</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D22"/>
     </row>
@@ -547,10 +523,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="C23">
-        <v>0.18733422458171844</v>
+        <v>0.2072727233171463</v>
       </c>
       <c r="D23"/>
     </row>
@@ -559,10 +535,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>566</v>
+        <v>712</v>
       </c>
       <c r="C24">
-        <v>0.18766577541828156</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D24"/>
     </row>
@@ -571,10 +547,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>594</v>
+        <v>978</v>
       </c>
       <c r="C25">
-        <v>0.19694960117340088</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D25"/>
     </row>
@@ -583,10 +559,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>745</v>
+        <v>998</v>
       </c>
       <c r="C26">
-        <v>0.24701590836048126</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D26"/>
     </row>
@@ -595,10 +571,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>879</v>
+        <v>1125</v>
       </c>
       <c r="C27">
-        <v>0.29144561290740967</v>
+        <v>0.37190082669258118</v>
       </c>
       <c r="D27"/>
     </row>
@@ -607,10 +583,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>985</v>
+        <v>1368</v>
       </c>
       <c r="C28">
-        <v>0.32659152150154114</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D28"/>
     </row>
@@ -619,10 +595,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1124</v>
+        <v>1446</v>
       </c>
       <c r="C29">
-        <v>0.37267905473709106</v>
+        <v>0.47801652550697327</v>
       </c>
       <c r="D29"/>
     </row>
@@ -631,10 +607,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1194</v>
+        <v>1497</v>
       </c>
       <c r="C30">
-        <v>0.39588859677314758</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D30"/>
     </row>
@@ -643,10 +619,10 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1471</v>
+        <v>1678</v>
       </c>
       <c r="C31">
-        <v>0.48773208260536194</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D31"/>
     </row>
@@ -655,10 +631,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1476</v>
+        <v>1767</v>
       </c>
       <c r="C32">
-        <v>0.48938992619514465</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D32"/>
     </row>
@@ -667,10 +643,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1621</v>
+        <v>1880</v>
       </c>
       <c r="C33">
-        <v>0.53746682405471802</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D33"/>
     </row>
@@ -679,10 +655,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1660</v>
+        <v>2226</v>
       </c>
       <c r="C34">
-        <v>0.55039787292480469</v>
+        <v>0.73586779832839966</v>
       </c>
       <c r="D34"/>
     </row>
@@ -691,10 +667,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1755</v>
+        <v>2436</v>
       </c>
       <c r="C35">
-        <v>0.58189654350280762</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D35"/>
     </row>
@@ -703,72 +679,12 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1798</v>
+        <v>2806</v>
       </c>
       <c r="C36">
-        <v>0.5961538553237915</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D36"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1817</v>
-      </c>
-      <c r="C37">
-        <v>0.60245358943939209</v>
-      </c>
-      <c r="D37"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1859</v>
-      </c>
-      <c r="C38">
-        <v>0.61637932062149048</v>
-      </c>
-      <c r="D38"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2330</v>
-      </c>
-      <c r="C39">
-        <v>0.77254641056060791</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2367</v>
-      </c>
-      <c r="C40">
-        <v>0.78481429815292358</v>
-      </c>
-      <c r="D40"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>2424</v>
-      </c>
-      <c r="C41">
-        <v>0.80371350049972534</v>
-      </c>
-      <c r="D41"/>
     </row>
   </sheetData>
 </worksheet>
@@ -776,191 +692,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
